--- a/data/trans_dic/IMC_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Dificultad-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad (tasa de respuesta: 96,87%)</t>
+          <t>Población con obesidad (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1391,7 +1391,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad (tasa de respuesta: 96,87%)</t>
+          <t>Población con obesidad (tasa de respuesta: 96,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/IMC_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/IMC_R2-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1187810478984143</v>
+        <v>0.1207253905615542</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1646090032743009</v>
+        <v>0.1617649604566715</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1641562427097622</v>
+        <v>0.1636793650847153</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1772431603552835</v>
+        <v>0.1760904078002152</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1788126091288136</v>
+        <v>0.1819810114307565</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2309137078001137</v>
+        <v>0.2300901819443053</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2180470838472671</v>
+        <v>0.2212562914375219</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2130009929644935</v>
+        <v>0.2130007557286636</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1628808220996392</v>
+        <v>0.1621962383260842</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2044287088478055</v>
+        <v>0.2056353429390188</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1990167976468325</v>
+        <v>0.1988602263781013</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2078996586940266</v>
+        <v>0.2057628213212211</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1755601005782348</v>
+        <v>0.1794986014878778</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2182777484384051</v>
+        <v>0.2161834313316628</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2126991440525854</v>
+        <v>0.2112012658302278</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2608748582179739</v>
+        <v>0.260256861958731</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.23318373477254</v>
+        <v>0.235287835019928</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2855999346998359</v>
+        <v>0.2859949825097414</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2706170580568513</v>
+        <v>0.2705822786283036</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2758503475728396</v>
+        <v>0.275235078216905</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2030132843343998</v>
+        <v>0.2006059344133101</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2430443623747552</v>
+        <v>0.2422076960454407</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2350145460299827</v>
+        <v>0.2344536842693489</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2551362116120549</v>
+        <v>0.2550863237787175</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1575289046839093</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1888031440440109</v>
+        <v>0.1888031440440108</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1519693402626645</v>
@@ -833,7 +833,7 @@
         <v>0.1685770698870586</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1901434953037455</v>
+        <v>0.1901434953037454</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1041286441642361</v>
+        <v>0.104456991933735</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1387700061287601</v>
+        <v>0.137422238393851</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1328418909321736</v>
+        <v>0.1309432432019318</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1645374967027876</v>
+        <v>0.1609992815226842</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1292713425283475</v>
+        <v>0.1307045837330764</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1875246392050489</v>
+        <v>0.1886343836687553</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1535770862134883</v>
+        <v>0.1556132329745552</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1728778166107115</v>
+        <v>0.1724680249888633</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1246775685808287</v>
+        <v>0.1245932053211242</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1717017781334046</v>
+        <v>0.1700609527164584</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1520446448543586</v>
+        <v>0.1510844763788264</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1735135481286075</v>
+        <v>0.1732888813103728</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1468864555557782</v>
+        <v>0.1459207935786727</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1892548510964206</v>
+        <v>0.1868148348340229</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1828820513149084</v>
+        <v>0.1838034849394749</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2158879430182248</v>
+        <v>0.2151396835536515</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1761255626278729</v>
+        <v>0.17495739416489</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2414517748554703</v>
+        <v>0.2412078466260786</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2046179851144197</v>
+        <v>0.2063314185028311</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2124740208272194</v>
+        <v>0.2135264756642175</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1533512482266753</v>
+        <v>0.1539675292803538</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2083439838443865</v>
+        <v>0.2083068336668335</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1875872365368906</v>
+        <v>0.1872012492825232</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2058371984579392</v>
+        <v>0.20628210004651</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09436067535007217</v>
+        <v>0.09275685430574217</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1335640313841588</v>
+        <v>0.1358644344244112</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1352820758075486</v>
+        <v>0.1351452875268062</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1231898166599728</v>
+        <v>0.1252986186185013</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09489458949036993</v>
+        <v>0.09497158653683813</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1592446050765743</v>
+        <v>0.1568365354496472</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1078459024001431</v>
+        <v>0.1045856839576717</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.131244921586007</v>
+        <v>0.1316770688156429</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09911755168927434</v>
+        <v>0.09875883631129839</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1543586434087783</v>
+        <v>0.1550526829818184</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1295328124979721</v>
+        <v>0.1280169836522706</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1333819120821676</v>
+        <v>0.1345435942138059</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1348324531027391</v>
+        <v>0.1315038064110553</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1847363351295364</v>
+        <v>0.1903788001034566</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1872587526137568</v>
+        <v>0.1855769920135553</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1670855219351561</v>
+        <v>0.1685381803891707</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1331455805160274</v>
+        <v>0.1342678977630793</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2102544946922202</v>
+        <v>0.211957480037849</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1602544752740612</v>
+        <v>0.1566913986391386</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1686042895010176</v>
+        <v>0.1681070844034274</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1276049532419995</v>
+        <v>0.1261962916764044</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1925930604925077</v>
+        <v>0.1918890419046142</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1669058370954395</v>
+        <v>0.1648287330764129</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1630270317599518</v>
+        <v>0.1612408728704421</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07728810528719614</v>
+        <v>0.07911505207899262</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1000867653887729</v>
+        <v>0.09752819311635504</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1325708063731242</v>
+        <v>0.1340786209729777</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1284107313898486</v>
+        <v>0.1264686436401217</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06198134564530106</v>
+        <v>0.05749905001299466</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1102524386380701</v>
+        <v>0.1111833148506857</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.109787808828063</v>
+        <v>0.11587973604475</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1109765936644558</v>
+        <v>0.1102719825649204</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07635264356811039</v>
+        <v>0.07797207898848477</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1127315016062348</v>
+        <v>0.1124354312900487</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1344006105371474</v>
+        <v>0.1324550172118637</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1246914721483943</v>
+        <v>0.1257518607753436</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1338568787088631</v>
+        <v>0.1371840923807561</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1640997593553529</v>
+        <v>0.164640324036275</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2050038632985155</v>
+        <v>0.2072730163560037</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1777771909578257</v>
+        <v>0.1762797371367659</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1242213838843235</v>
+        <v>0.1211172646222251</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1762481894417008</v>
+        <v>0.1773997370785248</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1826944733794569</v>
+        <v>0.1838028193765197</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1491378131906572</v>
+        <v>0.1504078866687799</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1168716663049672</v>
+        <v>0.1182575823412037</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1594671017243145</v>
+        <v>0.1600820183051306</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1856820888315873</v>
+        <v>0.1832788731582617</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1573929618807593</v>
+        <v>0.1565657570017344</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.1785855749975607</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1707627596721528</v>
+        <v>0.1707627596721527</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1095326253523005</v>
+        <v>0.1096662134528408</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1532074302179027</v>
+        <v>0.1519933997182971</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1556252229137163</v>
+        <v>0.1565350935554134</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1565529165198243</v>
+        <v>0.157793957315544</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1358161441220633</v>
+        <v>0.1366857952250158</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1972025075701462</v>
+        <v>0.1964641013565574</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1726324927554987</v>
+        <v>0.1732604424668941</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1613929217364823</v>
+        <v>0.1613854945370131</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1264292015588747</v>
+        <v>0.126664002827029</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1779059945905575</v>
+        <v>0.1781769025532438</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1695223884649687</v>
+        <v>0.1692625261339618</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1626376310436385</v>
+        <v>0.1619429220396901</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.133266204126553</v>
+        <v>0.1331203547837689</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1787564803235333</v>
+        <v>0.17823296138826</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1838297518408833</v>
+        <v>0.1834267138710516</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1826295382887075</v>
+        <v>0.1852253954447281</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1618987055219633</v>
+        <v>0.1613374161583672</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2251970525893765</v>
+        <v>0.2253446219078847</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.202274719644088</v>
+        <v>0.2019509527534373</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.183034888518682</v>
+        <v>0.1826455561024679</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1432936636166481</v>
+        <v>0.1431495426664698</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1978104487557931</v>
+        <v>0.1984335619752011</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1888577719213806</v>
+        <v>0.1893596864751146</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.179434355661158</v>
+        <v>0.1788659859608735</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>67984</v>
+        <v>69097</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>168397</v>
+        <v>165487</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>180484</v>
+        <v>179960</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>84256</v>
+        <v>83708</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>161632</v>
+        <v>164496</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>247611</v>
+        <v>246728</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>258543</v>
+        <v>262349</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>126853</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>240456</v>
+        <v>239446</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>428343</v>
+        <v>430872</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>454791</v>
+        <v>454433</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>222644</v>
+        <v>220356</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>100482</v>
+        <v>102736</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>223301</v>
+        <v>221158</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>233856</v>
+        <v>232209</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>124012</v>
+        <v>123718</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>210780</v>
+        <v>212682</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>306251</v>
+        <v>306675</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>320877</v>
+        <v>320836</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>164283</v>
+        <v>163916</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>299703</v>
+        <v>296149</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>509255</v>
+        <v>507502</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>537053</v>
+        <v>535771</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>273230</v>
+        <v>273177</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>111307</v>
+        <v>111658</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>133068</v>
+        <v>131775</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>116318</v>
+        <v>114656</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>156248</v>
+        <v>152888</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>134865</v>
+        <v>136360</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>194650</v>
+        <v>195802</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>148660</v>
+        <v>150631</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>185109</v>
+        <v>184670</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>263345</v>
+        <v>263167</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>342872</v>
+        <v>339596</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>280309</v>
+        <v>278539</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>350561</v>
+        <v>350107</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>157012</v>
+        <v>155980</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>181478</v>
+        <v>179138</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>160134</v>
+        <v>160941</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>205011</v>
+        <v>204301</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>183747</v>
+        <v>182528</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>250626</v>
+        <v>250373</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>198067</v>
+        <v>199725</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>227507</v>
+        <v>228634</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>323909</v>
+        <v>325211</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>416044</v>
+        <v>415969</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>345835</v>
+        <v>345124</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>415867</v>
+        <v>416766</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>105322</v>
+        <v>103532</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>115121</v>
+        <v>117104</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>107128</v>
+        <v>107020</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>127166</v>
+        <v>129343</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>93499</v>
+        <v>93574</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>134522</v>
+        <v>132487</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>77369</v>
+        <v>75031</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>133690</v>
+        <v>134130</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>208291</v>
+        <v>207537</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>263439</v>
+        <v>264623</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>195503</v>
+        <v>193215</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>273554</v>
+        <v>275937</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>150495</v>
+        <v>146780</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>159228</v>
+        <v>164091</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>148288</v>
+        <v>146956</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>172479</v>
+        <v>173978</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>131187</v>
+        <v>132293</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>177612</v>
+        <v>179051</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>114968</v>
+        <v>112412</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>171745</v>
+        <v>171239</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>268156</v>
+        <v>265195</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>328692</v>
+        <v>327491</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>251910</v>
+        <v>248775</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>334354</v>
+        <v>330690</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>34146</v>
+        <v>34953</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>50045</v>
+        <v>48765</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>64024</v>
+        <v>64752</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>122343</v>
+        <v>120492</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>20842</v>
+        <v>19335</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>48291</v>
+        <v>48699</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>50037</v>
+        <v>52813</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>97373</v>
+        <v>96755</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>59408</v>
+        <v>60668</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>105745</v>
+        <v>105467</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>126162</v>
+        <v>124336</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>228206</v>
+        <v>230147</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>59138</v>
+        <v>60608</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>82052</v>
+        <v>82322</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>99005</v>
+        <v>100100</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>169377</v>
+        <v>167950</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>41772</v>
+        <v>40728</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>77198</v>
+        <v>77703</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>83265</v>
+        <v>83770</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>130857</v>
+        <v>131971</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>90934</v>
+        <v>92013</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>149584</v>
+        <v>150161</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>174300</v>
+        <v>172044</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>288055</v>
+        <v>286541</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>350422</v>
+        <v>350850</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>512303</v>
+        <v>508243</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>505768</v>
+        <v>508725</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>533847</v>
+        <v>538079</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>443949</v>
+        <v>446792</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>669121</v>
+        <v>666615</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>574327</v>
+        <v>576416</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>574938</v>
+        <v>574912</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>817744</v>
+        <v>819263</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1198538</v>
+        <v>1200363</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1114912</v>
+        <v>1113203</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1133969</v>
+        <v>1129125</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>426352</v>
+        <v>425885</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>597735</v>
+        <v>595985</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>597430</v>
+        <v>596120</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>622769</v>
+        <v>631621</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>529206</v>
+        <v>527372</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>764108</v>
+        <v>764608</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>672943</v>
+        <v>671865</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>652035</v>
+        <v>650648</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>926823</v>
+        <v>925891</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1332632</v>
+        <v>1336830</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1242076</v>
+        <v>1245377</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1251082</v>
+        <v>1247119</v>
       </c>
     </row>
     <row r="24">
